--- a/data/NLP_Data.xlsx
+++ b/data/NLP_Data.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\OneDrive\Desktop\work\projects\nlp-user-command-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF25166-3CE8-4605-932A-24B22EC5922C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501CBD06-FC05-4EF3-9519-490CB0D92943}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17895" yWindow="5160" windowWidth="21600" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nlp-data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'nlp-data'!$A$1:$G$156</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'nlp-data'!$A$1:$G$601</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3766" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4270" uniqueCount="628">
   <si>
     <t>Text Command</t>
   </si>
@@ -1694,6 +1694,219 @@
   </si>
   <si>
     <t>emergency with</t>
+  </si>
+  <si>
+    <t>assign x in progress</t>
+  </si>
+  <si>
+    <t>assign in progress to x</t>
+  </si>
+  <si>
+    <t>move x to in progress</t>
+  </si>
+  <si>
+    <t>assign task x in progress</t>
+  </si>
+  <si>
+    <t>assign x task in progress</t>
+  </si>
+  <si>
+    <t>move task x to in progress</t>
+  </si>
+  <si>
+    <t>move x task to in progress</t>
+  </si>
+  <si>
+    <t>assign</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>assign x in review</t>
+  </si>
+  <si>
+    <t>assign in review to x</t>
+  </si>
+  <si>
+    <t>assign task x in review</t>
+  </si>
+  <si>
+    <t>assign x task in review</t>
+  </si>
+  <si>
+    <t>assign in review to task x</t>
+  </si>
+  <si>
+    <t>assign in review to x task</t>
+  </si>
+  <si>
+    <t>move x to in review</t>
+  </si>
+  <si>
+    <t>move task x to in review</t>
+  </si>
+  <si>
+    <t>move x task to in review</t>
+  </si>
+  <si>
+    <t>assign in progress to task x</t>
+  </si>
+  <si>
+    <t>assign in progress to x task</t>
+  </si>
+  <si>
+    <t>assign blocked to x</t>
+  </si>
+  <si>
+    <t>assign x blocked</t>
+  </si>
+  <si>
+    <t>assign blocked to task x</t>
+  </si>
+  <si>
+    <t>assign blocked to x task</t>
+  </si>
+  <si>
+    <t>assign task x blocked</t>
+  </si>
+  <si>
+    <t>assign x task blocked</t>
+  </si>
+  <si>
+    <t>move x to blocked</t>
+  </si>
+  <si>
+    <t>move task x to blocked</t>
+  </si>
+  <si>
+    <t>move x task to blocked</t>
+  </si>
+  <si>
+    <t>assign x completed</t>
+  </si>
+  <si>
+    <t>assign completed to x</t>
+  </si>
+  <si>
+    <t>assign task x completed</t>
+  </si>
+  <si>
+    <t>assign x task completed</t>
+  </si>
+  <si>
+    <t>assign completed to task x</t>
+  </si>
+  <si>
+    <t>assign completed to x task</t>
+  </si>
+  <si>
+    <t>move x to completed</t>
+  </si>
+  <si>
+    <t>move task x to completed</t>
+  </si>
+  <si>
+    <t>move x task to completed</t>
+  </si>
+  <si>
+    <t>assign on target to x</t>
+  </si>
+  <si>
+    <t>assign x on target</t>
+  </si>
+  <si>
+    <t>move x to on target</t>
+  </si>
+  <si>
+    <t>assign on target to project x</t>
+  </si>
+  <si>
+    <t>assign on target to x project</t>
+  </si>
+  <si>
+    <t>assign project x on target</t>
+  </si>
+  <si>
+    <t>assign x project on target</t>
+  </si>
+  <si>
+    <t>move project x to on target</t>
+  </si>
+  <si>
+    <t>move x project to on target</t>
+  </si>
+  <si>
+    <t>assign at risk to x</t>
+  </si>
+  <si>
+    <t>assign x at risk</t>
+  </si>
+  <si>
+    <t>assign at risk to project x</t>
+  </si>
+  <si>
+    <t>assign at risk to x project</t>
+  </si>
+  <si>
+    <t>assign project x at risk</t>
+  </si>
+  <si>
+    <t>assign x project at risk</t>
+  </si>
+  <si>
+    <t>move x to at risk</t>
+  </si>
+  <si>
+    <t>move project x to at risk</t>
+  </si>
+  <si>
+    <t>move x project to at risk</t>
+  </si>
+  <si>
+    <t>assign x danger</t>
+  </si>
+  <si>
+    <t>assign danger to x</t>
+  </si>
+  <si>
+    <t>assign project x danger</t>
+  </si>
+  <si>
+    <t>assign x project danger</t>
+  </si>
+  <si>
+    <t>assign danger to project x</t>
+  </si>
+  <si>
+    <t>assign danger to x project</t>
+  </si>
+  <si>
+    <t>move x to danger</t>
+  </si>
+  <si>
+    <t>move project x to danger</t>
+  </si>
+  <si>
+    <t>move x project to danger</t>
+  </si>
+  <si>
+    <t>assign completed to project x</t>
+  </si>
+  <si>
+    <t>assign completed to x project</t>
+  </si>
+  <si>
+    <t>assign project x completed</t>
+  </si>
+  <si>
+    <t>assign x project completed</t>
+  </si>
+  <si>
+    <t>move project x to completed</t>
+  </si>
+  <si>
+    <t>move x project to completed</t>
   </si>
 </sst>
 </file>
@@ -2194,7 +2407,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1"/>
@@ -2202,6 +2415,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2558,10 +2772,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G538"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G610"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A517" workbookViewId="0">
-      <selection activeCell="D536" sqref="D536"/>
+    <sheetView tabSelected="1" topLeftCell="A508" workbookViewId="0">
+      <selection activeCell="R603" sqref="R603"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2597,7 +2812,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>80</v>
       </c>
@@ -2620,7 +2835,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>76</v>
       </c>
@@ -2643,7 +2858,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
@@ -2666,7 +2881,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>106</v>
       </c>
@@ -2689,7 +2904,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -2712,7 +2927,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
@@ -2735,7 +2950,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,7 +2973,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -2781,7 +2996,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -2804,7 +3019,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>81</v>
       </c>
@@ -2827,7 +3042,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>82</v>
       </c>
@@ -2850,7 +3065,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>77</v>
       </c>
@@ -2873,7 +3088,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>78</v>
       </c>
@@ -2896,7 +3111,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>44</v>
       </c>
@@ -2919,7 +3134,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
@@ -2942,7 +3157,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>107</v>
       </c>
@@ -2965,7 +3180,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>108</v>
       </c>
@@ -2988,7 +3203,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>46</v>
       </c>
@@ -3011,7 +3226,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>47</v>
       </c>
@@ -3034,7 +3249,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>48</v>
       </c>
@@ -3057,7 +3272,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
@@ -3080,7 +3295,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -3103,7 +3318,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>51</v>
       </c>
@@ -3126,7 +3341,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>52</v>
       </c>
@@ -3149,7 +3364,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>53</v>
       </c>
@@ -3172,7 +3387,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
@@ -3195,7 +3410,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>55</v>
       </c>
@@ -3218,7 +3433,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>109</v>
       </c>
@@ -3241,7 +3456,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>110</v>
       </c>
@@ -3264,7 +3479,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>111</v>
       </c>
@@ -3287,7 +3502,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>112</v>
       </c>
@@ -3310,7 +3525,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>113</v>
       </c>
@@ -3333,7 +3548,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>114</v>
       </c>
@@ -3356,7 +3571,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>87</v>
       </c>
@@ -3379,7 +3594,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>88</v>
       </c>
@@ -3402,7 +3617,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>89</v>
       </c>
@@ -3425,7 +3640,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>56</v>
       </c>
@@ -3448,7 +3663,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>57</v>
       </c>
@@ -3471,7 +3686,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>58</v>
       </c>
@@ -3494,7 +3709,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>90</v>
       </c>
@@ -3517,7 +3732,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>91</v>
       </c>
@@ -3540,7 +3755,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>92</v>
       </c>
@@ -3563,7 +3778,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>61</v>
       </c>
@@ -3586,7 +3801,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>59</v>
       </c>
@@ -3609,7 +3824,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>60</v>
       </c>
@@ -3632,7 +3847,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>93</v>
       </c>
@@ -3655,7 +3870,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>94</v>
       </c>
@@ -3678,7 +3893,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>95</v>
       </c>
@@ -3701,7 +3916,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
@@ -3724,7 +3939,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>63</v>
       </c>
@@ -3747,7 +3962,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
@@ -3770,7 +3985,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>96</v>
       </c>
@@ -3793,7 +4008,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>97</v>
       </c>
@@ -3816,7 +4031,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>98</v>
       </c>
@@ -3839,7 +4054,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>65</v>
       </c>
@@ -3862,7 +4077,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>66</v>
       </c>
@@ -3885,7 +4100,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>67</v>
       </c>
@@ -3908,7 +4123,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>99</v>
       </c>
@@ -3931,7 +4146,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>100</v>
       </c>
@@ -3954,7 +4169,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>101</v>
       </c>
@@ -3977,7 +4192,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>68</v>
       </c>
@@ -4000,7 +4215,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>69</v>
       </c>
@@ -4023,7 +4238,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>70</v>
       </c>
@@ -4046,7 +4261,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>83</v>
       </c>
@@ -4069,7 +4284,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>84</v>
       </c>
@@ -4092,7 +4307,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>85</v>
       </c>
@@ -4115,7 +4330,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>86</v>
       </c>
@@ -4138,7 +4353,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>102</v>
       </c>
@@ -4161,7 +4376,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>103</v>
       </c>
@@ -4184,7 +4399,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>104</v>
       </c>
@@ -4207,7 +4422,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>105</v>
       </c>
@@ -4230,7 +4445,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>40</v>
       </c>
@@ -4253,7 +4468,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>117</v>
       </c>
@@ -4276,7 +4491,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>116</v>
       </c>
@@ -4299,7 +4514,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>120</v>
       </c>
@@ -4322,7 +4537,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>121</v>
       </c>
@@ -4345,7 +4560,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>118</v>
       </c>
@@ -4368,7 +4583,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>119</v>
       </c>
@@ -4391,7 +4606,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>122</v>
       </c>
@@ -4414,7 +4629,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>123</v>
       </c>
@@ -4437,7 +4652,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>134</v>
       </c>
@@ -4460,7 +4675,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>135</v>
       </c>
@@ -4483,7 +4698,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>136</v>
       </c>
@@ -4506,7 +4721,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>137</v>
       </c>
@@ -4529,7 +4744,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>124</v>
       </c>
@@ -4552,7 +4767,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>125</v>
       </c>
@@ -4575,7 +4790,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>138</v>
       </c>
@@ -4598,7 +4813,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>139</v>
       </c>
@@ -4621,7 +4836,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>140</v>
       </c>
@@ -4644,7 +4859,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>141</v>
       </c>
@@ -4667,7 +4882,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>126</v>
       </c>
@@ -4690,7 +4905,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>127</v>
       </c>
@@ -4713,7 +4928,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>142</v>
       </c>
@@ -4736,7 +4951,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>143</v>
       </c>
@@ -4759,7 +4974,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>144</v>
       </c>
@@ -4782,7 +4997,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>145</v>
       </c>
@@ -4805,7 +5020,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>128</v>
       </c>
@@ -4828,7 +5043,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>129</v>
       </c>
@@ -4851,7 +5066,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>146</v>
       </c>
@@ -4874,7 +5089,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>147</v>
       </c>
@@ -4897,7 +5112,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>148</v>
       </c>
@@ -4920,7 +5135,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>149</v>
       </c>
@@ -4943,7 +5158,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>131</v>
       </c>
@@ -4966,7 +5181,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>130</v>
       </c>
@@ -4989,7 +5204,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>150</v>
       </c>
@@ -5012,7 +5227,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>151</v>
       </c>
@@ -5035,7 +5250,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>152</v>
       </c>
@@ -5058,7 +5273,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>153</v>
       </c>
@@ -5081,7 +5296,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>132</v>
       </c>
@@ -5104,7 +5319,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>133</v>
       </c>
@@ -5127,7 +5342,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>154</v>
       </c>
@@ -5150,7 +5365,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>155</v>
       </c>
@@ -5173,7 +5388,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>156</v>
       </c>
@@ -5196,7 +5411,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>157</v>
       </c>
@@ -5219,7 +5434,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>161</v>
       </c>
@@ -5242,7 +5457,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>162</v>
       </c>
@@ -5265,7 +5480,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>163</v>
       </c>
@@ -5288,7 +5503,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>164</v>
       </c>
@@ -5311,7 +5526,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>165</v>
       </c>
@@ -5334,7 +5549,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>166</v>
       </c>
@@ -5357,7 +5572,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>167</v>
       </c>
@@ -5380,7 +5595,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>168</v>
       </c>
@@ -5403,7 +5618,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>169</v>
       </c>
@@ -5426,7 +5641,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>170</v>
       </c>
@@ -5449,7 +5664,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>283</v>
       </c>
@@ -5472,7 +5687,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>171</v>
       </c>
@@ -5495,7 +5710,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>172</v>
       </c>
@@ -5518,7 +5733,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>173</v>
       </c>
@@ -5541,7 +5756,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>174</v>
       </c>
@@ -5564,7 +5779,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>175</v>
       </c>
@@ -5587,7 +5802,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>176</v>
       </c>
@@ -5610,7 +5825,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>177</v>
       </c>
@@ -5633,7 +5848,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>178</v>
       </c>
@@ -5656,7 +5871,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>179</v>
       </c>
@@ -5679,7 +5894,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>180</v>
       </c>
@@ -5702,7 +5917,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>181</v>
       </c>
@@ -5725,7 +5940,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>182</v>
       </c>
@@ -5748,7 +5963,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>183</v>
       </c>
@@ -5771,7 +5986,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>184</v>
       </c>
@@ -5794,7 +6009,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>185</v>
       </c>
@@ -5817,7 +6032,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>186</v>
       </c>
@@ -5840,7 +6055,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>187</v>
       </c>
@@ -5863,7 +6078,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>188</v>
       </c>
@@ -5886,7 +6101,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>189</v>
       </c>
@@ -5909,7 +6124,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>190</v>
       </c>
@@ -5932,7 +6147,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>191</v>
       </c>
@@ -5955,7 +6170,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>192</v>
       </c>
@@ -5978,7 +6193,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>193</v>
       </c>
@@ -6001,7 +6216,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>194</v>
       </c>
@@ -6024,7 +6239,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>195</v>
       </c>
@@ -6047,7 +6262,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>196</v>
       </c>
@@ -6070,7 +6285,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>197</v>
       </c>
@@ -6093,7 +6308,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>198</v>
       </c>
@@ -6116,7 +6331,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>199</v>
       </c>
@@ -6139,7 +6354,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>200</v>
       </c>
@@ -6162,7 +6377,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>201</v>
       </c>
@@ -6185,7 +6400,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>202</v>
       </c>
@@ -6208,7 +6423,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>203</v>
       </c>
@@ -6231,7 +6446,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>204</v>
       </c>
@@ -6254,7 +6469,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>205</v>
       </c>
@@ -6277,7 +6492,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>206</v>
       </c>
@@ -6300,7 +6515,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>207</v>
       </c>
@@ -6323,7 +6538,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>208</v>
       </c>
@@ -6346,7 +6561,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>209</v>
       </c>
@@ -6369,7 +6584,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>210</v>
       </c>
@@ -6392,7 +6607,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>211</v>
       </c>
@@ -6415,7 +6630,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>212</v>
       </c>
@@ -6438,7 +6653,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>213</v>
       </c>
@@ -6461,7 +6676,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>214</v>
       </c>
@@ -6484,7 +6699,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>215</v>
       </c>
@@ -6507,7 +6722,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>216</v>
       </c>
@@ -6530,7 +6745,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>285</v>
       </c>
@@ -6553,7 +6768,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>286</v>
       </c>
@@ -6576,7 +6791,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>287</v>
       </c>
@@ -6599,7 +6814,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>288</v>
       </c>
@@ -6622,7 +6837,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>289</v>
       </c>
@@ -6645,7 +6860,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>290</v>
       </c>
@@ -6668,7 +6883,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>221</v>
       </c>
@@ -6691,7 +6906,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>222</v>
       </c>
@@ -6714,7 +6929,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>223</v>
       </c>
@@ -6737,7 +6952,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>224</v>
       </c>
@@ -6760,7 +6975,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>225</v>
       </c>
@@ -6783,7 +6998,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>226</v>
       </c>
@@ -6806,7 +7021,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>227</v>
       </c>
@@ -6829,7 +7044,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>228</v>
       </c>
@@ -6852,7 +7067,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>229</v>
       </c>
@@ -6875,7 +7090,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>230</v>
       </c>
@@ -6898,7 +7113,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>231</v>
       </c>
@@ -6921,7 +7136,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>232</v>
       </c>
@@ -6944,7 +7159,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>234</v>
       </c>
@@ -6967,7 +7182,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>233</v>
       </c>
@@ -6990,7 +7205,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>235</v>
       </c>
@@ -7013,7 +7228,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>236</v>
       </c>
@@ -7036,7 +7251,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>237</v>
       </c>
@@ -7059,7 +7274,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>238</v>
       </c>
@@ -7082,7 +7297,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>239</v>
       </c>
@@ -7105,7 +7320,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>240</v>
       </c>
@@ -7128,7 +7343,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>241</v>
       </c>
@@ -7151,7 +7366,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>242</v>
       </c>
@@ -7174,7 +7389,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>243</v>
       </c>
@@ -7197,7 +7412,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>244</v>
       </c>
@@ -7220,7 +7435,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>245</v>
       </c>
@@ -7243,7 +7458,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>246</v>
       </c>
@@ -7266,7 +7481,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>247</v>
       </c>
@@ -7289,7 +7504,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>248</v>
       </c>
@@ -7312,7 +7527,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>249</v>
       </c>
@@ -7335,7 +7550,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>250</v>
       </c>
@@ -7358,7 +7573,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>251</v>
       </c>
@@ -7381,7 +7596,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>252</v>
       </c>
@@ -7404,7 +7619,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>253</v>
       </c>
@@ -7427,7 +7642,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>254</v>
       </c>
@@ -7450,7 +7665,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>255</v>
       </c>
@@ -7473,7 +7688,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>256</v>
       </c>
@@ -7496,7 +7711,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>257</v>
       </c>
@@ -7519,7 +7734,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>258</v>
       </c>
@@ -7542,7 +7757,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>259</v>
       </c>
@@ -7565,7 +7780,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>260</v>
       </c>
@@ -7588,7 +7803,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>261</v>
       </c>
@@ -7611,7 +7826,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>262</v>
       </c>
@@ -7634,7 +7849,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>263</v>
       </c>
@@ -7657,7 +7872,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>264</v>
       </c>
@@ -7680,7 +7895,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>265</v>
       </c>
@@ -7703,7 +7918,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>266</v>
       </c>
@@ -7726,7 +7941,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>267</v>
       </c>
@@ -7749,7 +7964,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>268</v>
       </c>
@@ -7772,7 +7987,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>275</v>
       </c>
@@ -7795,7 +8010,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>277</v>
       </c>
@@ -7818,7 +8033,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>276</v>
       </c>
@@ -7841,7 +8056,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>278</v>
       </c>
@@ -7864,7 +8079,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>291</v>
       </c>
@@ -7887,7 +8102,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>326</v>
       </c>
@@ -7910,7 +8125,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>329</v>
       </c>
@@ -7933,7 +8148,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>279</v>
       </c>
@@ -7956,7 +8171,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>280</v>
       </c>
@@ -7979,7 +8194,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>281</v>
       </c>
@@ -8002,7 +8217,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>282</v>
       </c>
@@ -8025,7 +8240,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>292</v>
       </c>
@@ -8048,7 +8263,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>293</v>
       </c>
@@ -8071,7 +8286,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>294</v>
       </c>
@@ -8094,7 +8309,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>295</v>
       </c>
@@ -8117,7 +8332,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>296</v>
       </c>
@@ -8140,7 +8355,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>297</v>
       </c>
@@ -8163,7 +8378,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>298</v>
       </c>
@@ -8186,7 +8401,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>299</v>
       </c>
@@ -8209,7 +8424,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>300</v>
       </c>
@@ -8232,7 +8447,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>301</v>
       </c>
@@ -8255,7 +8470,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>302</v>
       </c>
@@ -8278,7 +8493,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>303</v>
       </c>
@@ -8301,7 +8516,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>304</v>
       </c>
@@ -8324,7 +8539,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>305</v>
       </c>
@@ -8347,7 +8562,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>306</v>
       </c>
@@ -8370,7 +8585,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>307</v>
       </c>
@@ -8393,7 +8608,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>308</v>
       </c>
@@ -8416,7 +8631,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>309</v>
       </c>
@@ -8439,7 +8654,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>310</v>
       </c>
@@ -8462,7 +8677,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>311</v>
       </c>
@@ -8485,7 +8700,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>312</v>
       </c>
@@ -8508,7 +8723,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>313</v>
       </c>
@@ -8531,7 +8746,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>314</v>
       </c>
@@ -8554,7 +8769,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>315</v>
       </c>
@@ -8577,7 +8792,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>316</v>
       </c>
@@ -8600,7 +8815,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>317</v>
       </c>
@@ -8623,7 +8838,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>318</v>
       </c>
@@ -8646,7 +8861,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>319</v>
       </c>
@@ -8669,7 +8884,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>320</v>
       </c>
@@ -8692,7 +8907,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>321</v>
       </c>
@@ -8715,7 +8930,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>279</v>
       </c>
@@ -8738,7 +8953,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>322</v>
       </c>
@@ -8761,7 +8976,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>323</v>
       </c>
@@ -8784,7 +8999,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>280</v>
       </c>
@@ -8807,7 +9022,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>324</v>
       </c>
@@ -8830,7 +9045,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>325</v>
       </c>
@@ -8853,7 +9068,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>350</v>
       </c>
@@ -8876,7 +9091,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>351</v>
       </c>
@@ -8899,7 +9114,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>352</v>
       </c>
@@ -8922,7 +9137,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>326</v>
       </c>
@@ -8945,7 +9160,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>327</v>
       </c>
@@ -8968,7 +9183,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>328</v>
       </c>
@@ -8991,7 +9206,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>329</v>
       </c>
@@ -9014,7 +9229,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>330</v>
       </c>
@@ -9037,7 +9252,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="4" t="s">
         <v>331</v>
       </c>
@@ -9060,7 +9275,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="4" t="s">
         <v>333</v>
       </c>
@@ -9083,7 +9298,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="4" t="s">
         <v>332</v>
       </c>
@@ -9106,7 +9321,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="4" t="s">
         <v>334</v>
       </c>
@@ -9129,7 +9344,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="4" t="s">
         <v>335</v>
       </c>
@@ -9152,7 +9367,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="4" t="s">
         <v>336</v>
       </c>
@@ -9175,7 +9390,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="s">
         <v>337</v>
       </c>
@@ -9198,7 +9413,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="4" t="s">
         <v>338</v>
       </c>
@@ -9221,7 +9436,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
         <v>339</v>
       </c>
@@ -9244,7 +9459,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="4" t="s">
         <v>340</v>
       </c>
@@ -9267,7 +9482,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="4" t="s">
         <v>341</v>
       </c>
@@ -9290,7 +9505,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="4" t="s">
         <v>342</v>
       </c>
@@ -9313,7 +9528,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="4" t="s">
         <v>343</v>
       </c>
@@ -9336,7 +9551,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="4" t="s">
         <v>344</v>
       </c>
@@ -9359,7 +9574,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="4" t="s">
         <v>345</v>
       </c>
@@ -9382,7 +9597,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
         <v>80</v>
       </c>
@@ -9405,7 +9620,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>76</v>
       </c>
@@ -9428,7 +9643,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>37</v>
       </c>
@@ -9451,7 +9666,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>106</v>
       </c>
@@ -9474,7 +9689,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>38</v>
       </c>
@@ -9497,7 +9712,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>39</v>
       </c>
@@ -9520,7 +9735,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>43</v>
       </c>
@@ -9543,7 +9758,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>41</v>
       </c>
@@ -9566,7 +9781,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>42</v>
       </c>
@@ -9589,7 +9804,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>353</v>
       </c>
@@ -9612,7 +9827,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>354</v>
       </c>
@@ -9635,7 +9850,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>355</v>
       </c>
@@ -9658,7 +9873,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>356</v>
       </c>
@@ -9681,7 +9896,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>357</v>
       </c>
@@ -9704,7 +9919,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>358</v>
       </c>
@@ -9727,7 +9942,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>359</v>
       </c>
@@ -9750,7 +9965,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>360</v>
       </c>
@@ -9773,7 +9988,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>361</v>
       </c>
@@ -9796,7 +10011,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>362</v>
       </c>
@@ -9819,7 +10034,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>363</v>
       </c>
@@ -9842,7 +10057,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>364</v>
       </c>
@@ -9865,7 +10080,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>365</v>
       </c>
@@ -9888,7 +10103,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>366</v>
       </c>
@@ -9911,7 +10126,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>367</v>
       </c>
@@ -9934,7 +10149,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>368</v>
       </c>
@@ -9957,7 +10172,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>369</v>
       </c>
@@ -9980,7 +10195,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>370</v>
       </c>
@@ -10003,7 +10218,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>109</v>
       </c>
@@ -10026,7 +10241,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>371</v>
       </c>
@@ -10049,7 +10264,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>372</v>
       </c>
@@ -10072,7 +10287,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>112</v>
       </c>
@@ -10095,7 +10310,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>373</v>
       </c>
@@ -10118,7 +10333,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>374</v>
       </c>
@@ -10141,7 +10356,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>87</v>
       </c>
@@ -10164,7 +10379,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>375</v>
       </c>
@@ -10187,7 +10402,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>376</v>
       </c>
@@ -10210,7 +10425,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>56</v>
       </c>
@@ -10233,7 +10448,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>377</v>
       </c>
@@ -10256,7 +10471,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>378</v>
       </c>
@@ -10279,7 +10494,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>90</v>
       </c>
@@ -10302,7 +10517,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>379</v>
       </c>
@@ -10325,7 +10540,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>380</v>
       </c>
@@ -10348,7 +10563,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>61</v>
       </c>
@@ -10371,7 +10586,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>381</v>
       </c>
@@ -10394,7 +10609,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>382</v>
       </c>
@@ -10417,7 +10632,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>93</v>
       </c>
@@ -10440,7 +10655,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>383</v>
       </c>
@@ -10463,7 +10678,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>384</v>
       </c>
@@ -10486,7 +10701,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>62</v>
       </c>
@@ -10509,7 +10724,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>385</v>
       </c>
@@ -10532,7 +10747,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>386</v>
       </c>
@@ -10555,7 +10770,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>96</v>
       </c>
@@ -10578,7 +10793,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>387</v>
       </c>
@@ -10601,7 +10816,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>388</v>
       </c>
@@ -10624,7 +10839,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>65</v>
       </c>
@@ -10647,7 +10862,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>389</v>
       </c>
@@ -10670,7 +10885,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>390</v>
       </c>
@@ -10693,7 +10908,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>99</v>
       </c>
@@ -10716,7 +10931,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>391</v>
       </c>
@@ -10739,7 +10954,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>392</v>
       </c>
@@ -10762,7 +10977,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>68</v>
       </c>
@@ -10785,7 +11000,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>393</v>
       </c>
@@ -10808,7 +11023,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>394</v>
       </c>
@@ -10831,7 +11046,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="5" t="s">
         <v>467</v>
       </c>
@@ -10854,7 +11069,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="5" t="s">
         <v>468</v>
       </c>
@@ -10877,7 +11092,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="5" t="s">
         <v>469</v>
       </c>
@@ -10900,7 +11115,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="5" t="s">
         <v>470</v>
       </c>
@@ -10923,7 +11138,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="5" t="s">
         <v>471</v>
       </c>
@@ -10946,7 +11161,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="5" t="s">
         <v>472</v>
       </c>
@@ -10969,7 +11184,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="5" t="s">
         <v>473</v>
       </c>
@@ -10992,7 +11207,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="5" t="s">
         <v>474</v>
       </c>
@@ -11015,7 +11230,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="5" t="s">
         <v>475</v>
       </c>
@@ -11038,7 +11253,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="5" t="s">
         <v>476</v>
       </c>
@@ -11061,7 +11276,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="5" t="s">
         <v>477</v>
       </c>
@@ -11084,7 +11299,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="5" t="s">
         <v>478</v>
       </c>
@@ -11107,7 +11322,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="5" t="s">
         <v>479</v>
       </c>
@@ -11130,7 +11345,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="5" t="s">
         <v>480</v>
       </c>
@@ -11153,7 +11368,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="5" t="s">
         <v>483</v>
       </c>
@@ -11176,7 +11391,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="5" t="s">
         <v>481</v>
       </c>
@@ -11199,7 +11414,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="5" t="s">
         <v>482</v>
       </c>
@@ -11222,7 +11437,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="5" t="s">
         <v>484</v>
       </c>
@@ -11245,7 +11460,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="5" t="s">
         <v>485</v>
       </c>
@@ -11268,7 +11483,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="5" t="s">
         <v>486</v>
       </c>
@@ -11291,7 +11506,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="5" t="s">
         <v>487</v>
       </c>
@@ -11314,7 +11529,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="5" t="s">
         <v>486</v>
       </c>
@@ -11337,7 +11552,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="5" t="s">
         <v>490</v>
       </c>
@@ -11360,7 +11575,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="5" t="s">
         <v>488</v>
       </c>
@@ -11383,7 +11598,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="5" t="s">
         <v>489</v>
       </c>
@@ -11406,7 +11621,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="5" t="s">
         <v>491</v>
       </c>
@@ -11429,7 +11644,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="5" t="s">
         <v>492</v>
       </c>
@@ -11452,7 +11667,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="5" t="s">
         <v>493</v>
       </c>
@@ -11475,7 +11690,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="5" t="s">
         <v>494</v>
       </c>
@@ -11498,7 +11713,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="5" t="s">
         <v>495</v>
       </c>
@@ -11521,7 +11736,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="5" t="s">
         <v>496</v>
       </c>
@@ -11544,7 +11759,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="5" t="s">
         <v>497</v>
       </c>
@@ -11567,7 +11782,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="5" t="s">
         <v>498</v>
       </c>
@@ -11590,7 +11805,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="5" t="s">
         <v>499</v>
       </c>
@@ -11613,7 +11828,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="5" t="s">
         <v>500</v>
       </c>
@@ -11636,7 +11851,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="5" t="s">
         <v>501</v>
       </c>
@@ -11659,7 +11874,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="5" t="s">
         <v>502</v>
       </c>
@@ -11682,7 +11897,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="5" t="s">
         <v>503</v>
       </c>
@@ -11705,7 +11920,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="5" t="s">
         <v>504</v>
       </c>
@@ -11728,7 +11943,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="5" t="s">
         <v>505</v>
       </c>
@@ -11751,7 +11966,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="5" t="s">
         <v>506</v>
       </c>
@@ -11774,7 +11989,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="5" t="s">
         <v>507</v>
       </c>
@@ -11797,7 +12012,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="5" t="s">
         <v>525</v>
       </c>
@@ -11820,7 +12035,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="5" t="s">
         <v>508</v>
       </c>
@@ -11843,7 +12058,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="5" t="s">
         <v>509</v>
       </c>
@@ -11866,7 +12081,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="5" t="s">
         <v>510</v>
       </c>
@@ -11889,7 +12104,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="5" t="s">
         <v>511</v>
       </c>
@@ -11912,7 +12127,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="5" t="s">
         <v>512</v>
       </c>
@@ -11935,7 +12150,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="5" t="s">
         <v>513</v>
       </c>
@@ -11958,7 +12173,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="5" t="s">
         <v>514</v>
       </c>
@@ -11981,7 +12196,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="5" t="s">
         <v>515</v>
       </c>
@@ -12004,7 +12219,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="5" t="s">
         <v>516</v>
       </c>
@@ -12027,7 +12242,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="5" t="s">
         <v>517</v>
       </c>
@@ -12050,7 +12265,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="5" t="s">
         <v>518</v>
       </c>
@@ -12073,7 +12288,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="5" t="s">
         <v>519</v>
       </c>
@@ -12096,7 +12311,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="5" t="s">
         <v>520</v>
       </c>
@@ -12119,7 +12334,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="5" t="s">
         <v>521</v>
       </c>
@@ -12142,7 +12357,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="5" t="s">
         <v>522</v>
       </c>
@@ -12165,7 +12380,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="5" t="s">
         <v>523</v>
       </c>
@@ -12188,7 +12403,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="5" t="s">
         <v>524</v>
       </c>
@@ -12211,7 +12426,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="5" t="s">
         <v>526</v>
       </c>
@@ -12234,7 +12449,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="5" t="s">
         <v>527</v>
       </c>
@@ -12257,7 +12472,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="5" t="s">
         <v>528</v>
       </c>
@@ -12280,7 +12495,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="5" t="s">
         <v>529</v>
       </c>
@@ -12303,7 +12518,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="5" t="s">
         <v>530</v>
       </c>
@@ -12326,7 +12541,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="5" t="s">
         <v>531</v>
       </c>
@@ -12349,7 +12564,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="5" t="s">
         <v>532</v>
       </c>
@@ -12372,7 +12587,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="5" t="s">
         <v>534</v>
       </c>
@@ -12395,7 +12610,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="5" t="s">
         <v>535</v>
       </c>
@@ -12418,7 +12633,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="5" t="s">
         <v>536</v>
       </c>
@@ -12441,7 +12656,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="5" t="s">
         <v>537</v>
       </c>
@@ -12464,7 +12679,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="5" t="s">
         <v>538</v>
       </c>
@@ -12487,7 +12702,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="5" t="s">
         <v>223</v>
       </c>
@@ -12510,7 +12725,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="5" t="s">
         <v>224</v>
       </c>
@@ -12533,7 +12748,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="5" t="s">
         <v>226</v>
       </c>
@@ -12556,7 +12771,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>539</v>
       </c>
@@ -12579,7 +12794,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>540</v>
       </c>
@@ -12602,7 +12817,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>541</v>
       </c>
@@ -12625,7 +12840,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>542</v>
       </c>
@@ -12648,7 +12863,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>543</v>
       </c>
@@ -12671,7 +12886,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="5" t="s">
         <v>544</v>
       </c>
@@ -12694,7 +12909,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="5" t="s">
         <v>545</v>
       </c>
@@ -12717,7 +12932,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="5" t="s">
         <v>546</v>
       </c>
@@ -12740,7 +12955,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="5" t="s">
         <v>547</v>
       </c>
@@ -12763,7 +12978,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="5" t="s">
         <v>548</v>
       </c>
@@ -12786,7 +13001,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="5" t="s">
         <v>395</v>
       </c>
@@ -12809,7 +13024,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="5" t="s">
         <v>396</v>
       </c>
@@ -12832,7 +13047,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="5" t="s">
         <v>549</v>
       </c>
@@ -12855,7 +13070,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="5" t="s">
         <v>397</v>
       </c>
@@ -12878,7 +13093,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="5" t="s">
         <v>398</v>
       </c>
@@ -12901,7 +13116,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="5" t="s">
         <v>550</v>
       </c>
@@ -12924,7 +13139,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="5" t="s">
         <v>399</v>
       </c>
@@ -12947,7 +13162,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="5" t="s">
         <v>400</v>
       </c>
@@ -12970,7 +13185,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="5" t="s">
         <v>401</v>
       </c>
@@ -12993,7 +13208,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="5" t="s">
         <v>402</v>
       </c>
@@ -13016,7 +13231,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="5" t="s">
         <v>551</v>
       </c>
@@ -13039,7 +13254,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="5" t="s">
         <v>403</v>
       </c>
@@ -13062,7 +13277,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="5" t="s">
         <v>404</v>
       </c>
@@ -13085,7 +13300,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="5" t="s">
         <v>552</v>
       </c>
@@ -13108,7 +13323,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="5" t="s">
         <v>405</v>
       </c>
@@ -13131,7 +13346,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="5" t="s">
         <v>406</v>
       </c>
@@ -13154,7 +13369,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="5" t="s">
         <v>407</v>
       </c>
@@ -13177,7 +13392,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="5" t="s">
         <v>408</v>
       </c>
@@ -13200,7 +13415,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="5" t="s">
         <v>553</v>
       </c>
@@ -13223,7 +13438,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="5" t="s">
         <v>409</v>
       </c>
@@ -13246,7 +13461,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="5" t="s">
         <v>410</v>
       </c>
@@ -13269,7 +13484,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="5" t="s">
         <v>554</v>
       </c>
@@ -13292,7 +13507,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="5" t="s">
         <v>411</v>
       </c>
@@ -13315,7 +13530,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="5" t="s">
         <v>412</v>
       </c>
@@ -13352,7 +13567,7 @@
         <v>8</v>
       </c>
       <c r="E469" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F469" s="2" t="s">
         <v>9</v>
@@ -13375,7 +13590,7 @@
         <v>8</v>
       </c>
       <c r="E470" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F470" s="2" t="s">
         <v>9</v>
@@ -13398,7 +13613,7 @@
         <v>8</v>
       </c>
       <c r="E471" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F471" s="2" t="s">
         <v>9</v>
@@ -13421,7 +13636,7 @@
         <v>8</v>
       </c>
       <c r="E472" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F472" s="2" t="s">
         <v>9</v>
@@ -13444,7 +13659,7 @@
         <v>8</v>
       </c>
       <c r="E473" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F473" s="2" t="s">
         <v>9</v>
@@ -13467,7 +13682,7 @@
         <v>8</v>
       </c>
       <c r="E474" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F474" s="2" t="s">
         <v>9</v>
@@ -13490,7 +13705,7 @@
         <v>8</v>
       </c>
       <c r="E475" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F475" s="2" t="s">
         <v>9</v>
@@ -13513,7 +13728,7 @@
         <v>8</v>
       </c>
       <c r="E476" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F476" s="2" t="s">
         <v>9</v>
@@ -13536,7 +13751,7 @@
         <v>8</v>
       </c>
       <c r="E477" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F477" s="2" t="s">
         <v>9</v>
@@ -13559,7 +13774,7 @@
         <v>8</v>
       </c>
       <c r="E478" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F478" s="2" t="s">
         <v>9</v>
@@ -13582,7 +13797,7 @@
         <v>8</v>
       </c>
       <c r="E479" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F479" s="2" t="s">
         <v>9</v>
@@ -13605,7 +13820,7 @@
         <v>8</v>
       </c>
       <c r="E480" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F480" s="2" t="s">
         <v>9</v>
@@ -13628,7 +13843,7 @@
         <v>8</v>
       </c>
       <c r="E481" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F481" s="2" t="s">
         <v>9</v>
@@ -13651,7 +13866,7 @@
         <v>8</v>
       </c>
       <c r="E482" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F482" s="2" t="s">
         <v>9</v>
@@ -13674,7 +13889,7 @@
         <v>8</v>
       </c>
       <c r="E483" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F483" s="2" t="s">
         <v>9</v>
@@ -13697,7 +13912,7 @@
         <v>8</v>
       </c>
       <c r="E484" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F484" s="2" t="s">
         <v>9</v>
@@ -13720,7 +13935,7 @@
         <v>8</v>
       </c>
       <c r="E485" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F485" s="2" t="s">
         <v>9</v>
@@ -13743,7 +13958,7 @@
         <v>8</v>
       </c>
       <c r="E486" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F486" s="2" t="s">
         <v>9</v>
@@ -13766,7 +13981,7 @@
         <v>8</v>
       </c>
       <c r="E487" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F487" s="2" t="s">
         <v>9</v>
@@ -13789,7 +14004,7 @@
         <v>8</v>
       </c>
       <c r="E488" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F488" s="2" t="s">
         <v>9</v>
@@ -13812,7 +14027,7 @@
         <v>8</v>
       </c>
       <c r="E489" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F489" s="2" t="s">
         <v>9</v>
@@ -13835,7 +14050,7 @@
         <v>8</v>
       </c>
       <c r="E490" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F490" s="2" t="s">
         <v>9</v>
@@ -13858,7 +14073,7 @@
         <v>8</v>
       </c>
       <c r="E491" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F491" s="2" t="s">
         <v>9</v>
@@ -13881,7 +14096,7 @@
         <v>8</v>
       </c>
       <c r="E492" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F492" s="2" t="s">
         <v>9</v>
@@ -13904,7 +14119,7 @@
         <v>8</v>
       </c>
       <c r="E493" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F493" s="2" t="s">
         <v>9</v>
@@ -13927,7 +14142,7 @@
         <v>8</v>
       </c>
       <c r="E494" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F494" s="2" t="s">
         <v>9</v>
@@ -13950,7 +14165,7 @@
         <v>8</v>
       </c>
       <c r="E495" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F495" s="2" t="s">
         <v>9</v>
@@ -13973,7 +14188,7 @@
         <v>8</v>
       </c>
       <c r="E496" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F496" s="2" t="s">
         <v>9</v>
@@ -13996,7 +14211,7 @@
         <v>8</v>
       </c>
       <c r="E497" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F497" s="2" t="s">
         <v>9</v>
@@ -14019,7 +14234,7 @@
         <v>8</v>
       </c>
       <c r="E498" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F498" s="2" t="s">
         <v>9</v>
@@ -14042,7 +14257,7 @@
         <v>8</v>
       </c>
       <c r="E499" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F499" s="2" t="s">
         <v>9</v>
@@ -14065,7 +14280,7 @@
         <v>8</v>
       </c>
       <c r="E500" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F500" s="2" t="s">
         <v>9</v>
@@ -14088,7 +14303,7 @@
         <v>8</v>
       </c>
       <c r="E501" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F501" s="2" t="s">
         <v>9</v>
@@ -14111,7 +14326,7 @@
         <v>8</v>
       </c>
       <c r="E502" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F502" s="2" t="s">
         <v>9</v>
@@ -14134,7 +14349,7 @@
         <v>8</v>
       </c>
       <c r="E503" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F503" s="2" t="s">
         <v>9</v>
@@ -14157,7 +14372,7 @@
         <v>8</v>
       </c>
       <c r="E504" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F504" s="2" t="s">
         <v>9</v>
@@ -14180,7 +14395,7 @@
         <v>8</v>
       </c>
       <c r="E505" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F505" s="2" t="s">
         <v>9</v>
@@ -14203,7 +14418,7 @@
         <v>8</v>
       </c>
       <c r="E506" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F506" s="2" t="s">
         <v>9</v>
@@ -14226,7 +14441,7 @@
         <v>8</v>
       </c>
       <c r="E507" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F507" s="2" t="s">
         <v>9</v>
@@ -14249,7 +14464,7 @@
         <v>8</v>
       </c>
       <c r="E508" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F508" s="2" t="s">
         <v>9</v>
@@ -14272,7 +14487,7 @@
         <v>8</v>
       </c>
       <c r="E509" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F509" s="2" t="s">
         <v>9</v>
@@ -14295,7 +14510,7 @@
         <v>8</v>
       </c>
       <c r="E510" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F510" s="2" t="s">
         <v>9</v>
@@ -14318,7 +14533,7 @@
         <v>8</v>
       </c>
       <c r="E511" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F511" s="2" t="s">
         <v>9</v>
@@ -14341,7 +14556,7 @@
         <v>8</v>
       </c>
       <c r="E512" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F512" s="2" t="s">
         <v>9</v>
@@ -14364,7 +14579,7 @@
         <v>8</v>
       </c>
       <c r="E513" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F513" s="2" t="s">
         <v>9</v>
@@ -14387,7 +14602,7 @@
         <v>8</v>
       </c>
       <c r="E514" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F514" s="2" t="s">
         <v>9</v>
@@ -14410,7 +14625,7 @@
         <v>8</v>
       </c>
       <c r="E515" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F515" s="2" t="s">
         <v>9</v>
@@ -14433,7 +14648,7 @@
         <v>8</v>
       </c>
       <c r="E516" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F516" s="2" t="s">
         <v>9</v>
@@ -14456,7 +14671,7 @@
         <v>8</v>
       </c>
       <c r="E517" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F517" s="2" t="s">
         <v>9</v>
@@ -14479,7 +14694,7 @@
         <v>8</v>
       </c>
       <c r="E518" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F518" s="2" t="s">
         <v>9</v>
@@ -14502,7 +14717,7 @@
         <v>8</v>
       </c>
       <c r="E519" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F519" s="2" t="s">
         <v>9</v>
@@ -14525,7 +14740,7 @@
         <v>8</v>
       </c>
       <c r="E520" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F520" s="2" t="s">
         <v>9</v>
@@ -14548,7 +14763,7 @@
         <v>8</v>
       </c>
       <c r="E521" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F521" s="2" t="s">
         <v>9</v>
@@ -14571,7 +14786,7 @@
         <v>8</v>
       </c>
       <c r="E522" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F522" s="2" t="s">
         <v>9</v>
@@ -14594,7 +14809,7 @@
         <v>8</v>
       </c>
       <c r="E523" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F523" s="2" t="s">
         <v>9</v>
@@ -14617,7 +14832,7 @@
         <v>8</v>
       </c>
       <c r="E524" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F524" s="2" t="s">
         <v>9</v>
@@ -14640,7 +14855,7 @@
         <v>8</v>
       </c>
       <c r="E525" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F525" s="2" t="s">
         <v>9</v>
@@ -14663,7 +14878,7 @@
         <v>8</v>
       </c>
       <c r="E526" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F526" s="2" t="s">
         <v>9</v>
@@ -14686,7 +14901,7 @@
         <v>8</v>
       </c>
       <c r="E527" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F527" s="2" t="s">
         <v>9</v>
@@ -14709,7 +14924,7 @@
         <v>8</v>
       </c>
       <c r="E528" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F528" s="2" t="s">
         <v>9</v>
@@ -14732,7 +14947,7 @@
         <v>8</v>
       </c>
       <c r="E529" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F529" s="2" t="s">
         <v>9</v>
@@ -14755,7 +14970,7 @@
         <v>8</v>
       </c>
       <c r="E530" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F530" s="2" t="s">
         <v>9</v>
@@ -14778,7 +14993,7 @@
         <v>8</v>
       </c>
       <c r="E531" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F531" s="2" t="s">
         <v>9</v>
@@ -14801,7 +15016,7 @@
         <v>8</v>
       </c>
       <c r="E532" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F532" s="2" t="s">
         <v>9</v>
@@ -14824,7 +15039,7 @@
         <v>8</v>
       </c>
       <c r="E533" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F533" s="2" t="s">
         <v>9</v>
@@ -14847,7 +15062,7 @@
         <v>8</v>
       </c>
       <c r="E534" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F534" s="2" t="s">
         <v>9</v>
@@ -14870,7 +15085,7 @@
         <v>8</v>
       </c>
       <c r="E535" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F535" s="2" t="s">
         <v>9</v>
@@ -14893,7 +15108,7 @@
         <v>8</v>
       </c>
       <c r="E536" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F536" s="2" t="s">
         <v>9</v>
@@ -14916,7 +15131,7 @@
         <v>8</v>
       </c>
       <c r="E537" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F537" s="2" t="s">
         <v>9</v>
@@ -14939,7 +15154,7 @@
         <v>8</v>
       </c>
       <c r="E538" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F538" s="2" t="s">
         <v>9</v>
@@ -14948,8 +15163,1675 @@
         <v>349</v>
       </c>
     </row>
+    <row r="539" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A539" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C539" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D539" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E539" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F539" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G539" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="540" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A540" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D540" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E540" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F540" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G540" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="541" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A541" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C541" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D541" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E541" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F541" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G541" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="542" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A542" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C542" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D542" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E542" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F542" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G542" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="543" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A543" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C543" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D543" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E543" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F543" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G543" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="544" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A544" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C544" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D544" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E544" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F544" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G544" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="545" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A545" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C545" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D545" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E545" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F545" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G545" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="546" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A546" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C546" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D546" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E546" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F546" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G546" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="547" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A547" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C547" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D547" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E547" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F547" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G547" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="548" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A548" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C548" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D548" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E548" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F548" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G548" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="549" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A549" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C549" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D549" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E549" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F549" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G549" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="550" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A550" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C550" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D550" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E550" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F550" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G550" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="551" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A551" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C551" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D551" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E551" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F551" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G551" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="552" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A552" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C552" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D552" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E552" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F552" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G552" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="553" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A553" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C553" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D553" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E553" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F553" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G553" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="554" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A554" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C554" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D554" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E554" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F554" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G554" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="555" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A555" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C555" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D555" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E555" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F555" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G555" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="556" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A556" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C556" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D556" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E556" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F556" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G556" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="557" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A557" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C557" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D557" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E557" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F557" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G557" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="558" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A558" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C558" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D558" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E558" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F558" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G558" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="559" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A559" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C559" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D559" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E559" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F559" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G559" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="560" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A560" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C560" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D560" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E560" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F560" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G560" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="561" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A561" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C561" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D561" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E561" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F561" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G561" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="562" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A562" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C562" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D562" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E562" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F562" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G562" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="563" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A563" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C563" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D563" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E563" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F563" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G563" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="564" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A564" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C564" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D564" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E564" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F564" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G564" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="565" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A565" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C565" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D565" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E565" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F565" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G565" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="566" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A566" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C566" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D566" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E566" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F566" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G566" s="7" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="567" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A567" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C567" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D567" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E567" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F567" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G567" s="7" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="568" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A568" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C568" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D568" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E568" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F568" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G568" s="7" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="569" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A569" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C569" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D569" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E569" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F569" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G569" s="7" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="570" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A570" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C570" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D570" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E570" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F570" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G570" s="7" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="571" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A571" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C571" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D571" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E571" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F571" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G571" s="7" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="572" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A572" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C572" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D572" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E572" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F572" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G572" s="7" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="573" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A573" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C573" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D573" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E573" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F573" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G573" s="7" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="574" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A574" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="B574" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C574" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D574" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E574" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F574" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G574" s="7" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="575" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A575" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="B575" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C575" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D575" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E575" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F575" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G575" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="576" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A576" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="B576" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C576" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D576" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E576" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F576" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G576" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="577" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A577" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="B577" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C577" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D577" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E577" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F577" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G577" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="578" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A578" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="B578" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C578" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D578" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E578" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F578" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G578" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="579" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A579" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="B579" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C579" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D579" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E579" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F579" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G579" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="580" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A580" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="B580" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C580" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D580" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E580" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F580" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G580" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="581" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A581" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="B581" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C581" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D581" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E581" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F581" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G581" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="582" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A582" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="B582" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C582" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D582" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E582" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F582" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G582" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="583" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A583" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="B583" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C583" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D583" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E583" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F583" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G583" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="584" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A584" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="B584" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C584" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D584" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E584" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F584" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G584" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="585" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A585" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="B585" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C585" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D585" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E585" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F585" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G585" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="586" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A586" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="B586" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C586" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D586" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E586" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F586" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G586" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="587" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A587" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="B587" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C587" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D587" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E587" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F587" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G587" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="588" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A588" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="B588" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C588" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D588" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E588" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F588" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G588" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="589" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A589" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="B589" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C589" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D589" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E589" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F589" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G589" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="590" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A590" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="B590" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C590" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D590" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E590" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F590" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G590" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="591" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A591" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="B591" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C591" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D591" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E591" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F591" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G591" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="592" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A592" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="B592" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C592" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D592" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E592" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F592" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G592" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="593" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A593" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="B593" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C593" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D593" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E593" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F593" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G593" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="594" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A594" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="B594" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C594" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D594" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E594" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F594" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G594" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="595" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A595" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="B595" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C595" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D595" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E595" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F595" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G595" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="596" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A596" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="B596" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C596" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D596" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E596" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F596" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G596" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="597" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A597" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="B597" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C597" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D597" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E597" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F597" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G597" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="598" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A598" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="B598" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C598" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D598" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E598" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F598" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G598" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="599" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A599" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="B599" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C599" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D599" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E599" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F599" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G599" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="600" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A600" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="B600" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C600" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D600" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E600" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F600" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G600" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="601" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A601" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="B601" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C601" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D601" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E601" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F601" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G601" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A602" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="B602" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C602" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D602" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E602" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F602" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G602" s="7" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A603" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="B603" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C603" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D603" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E603" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F603" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G603" s="7" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A604" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="B604" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C604" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D604" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E604" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F604" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G604" s="7" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A605" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="B605" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C605" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D605" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E605" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F605" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G605" s="7" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A606" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="B606" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C606" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D606" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E606" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F606" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G606" s="7" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A607" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="B607" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C607" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D607" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E607" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F607" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G607" s="7" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A608" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="B608" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C608" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D608" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E608" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F608" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G608" s="7" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A609" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="B609" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C609" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D609" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E609" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F609" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G609" s="7" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A610" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="B610" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C610" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D610" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E610" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F610" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G610" s="7" t="s">
+        <v>565</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G156" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G601" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Project"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Completed"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>